--- a/biology/Zoologie/Martin_Chalfie/Martin_Chalfie.xlsx
+++ b/biology/Zoologie/Martin_Chalfie/Martin_Chalfie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Martin Chalfie (né le 15 janvier 1947 à Chicago) est un biologiste américain, corécipiendaire du prix Nobel de chimie de 2008 avec Osamu Shimomura et Roger Tsien[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Martin Chalfie (né le 15 janvier 1947 à Chicago) est un biologiste américain, corécipiendaire du prix Nobel de chimie de 2008 avec Osamu Shimomura et Roger Tsien.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille dont les grands-parents ont émigré de Russie, Martin Chalfie a grandi à Chicago. Il commence des études supérieures de mathématique en 1965 avant de s'orienter vers la biochimie. Après une thèse obtenue à l'université Harvard en 1977, il fait un post-doc à l'université de Cambridge, au Laboratory of Molecular Biology dans le groupe de John Sulston et Sydney Brenner de 1984 à 1985.
 En 1982, il intègre le département de Biologie de l'université Columbia à New York où il poursuit son travail sur la mise en place et le maintien des circuits neuronaux chez C. elegans.
 Il est élu à l'Académie nationale des sciences en 2004.
-En 2008, Chalfie, Osamu Shimomura et Roger Tsien sont colauréats du prix Nobel de chimie « pour la découverte et le développement de la protéine fluorescente verte, la GFP[1] ». La GFP a été découverte initialement dans l'organisme de la méduse Aequorea victoria en 1962. Martin Chalfie a utilisé la GFP comme marqueur biologique et génétique chez le nématode en colorant individuellement six cellules.
+En 2008, Chalfie, Osamu Shimomura et Roger Tsien sont colauréats du prix Nobel de chimie « pour la découverte et le développement de la protéine fluorescente verte, la GFP ». La GFP a été découverte initialement dans l'organisme de la méduse Aequorea victoria en 1962. Martin Chalfie a utilisé la GFP comme marqueur biologique et génétique chez le nématode en colorant individuellement six cellules.
 </t>
         </is>
       </c>
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,9 +587,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1989, Martin Chalfie a épousé la  biologiste américaine Tulle Hazelrigg[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1989, Martin Chalfie a épousé la  biologiste américaine Tulle Hazelrigg.
 </t>
         </is>
       </c>
